--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_335__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_335__Reeval_Sobol_Modell_1.2.xlsx
@@ -6127,7 +6127,7 @@
                   <c:v>35.69717025756836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.66257095336914</c:v>
+                  <c:v>62.66256332397461</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.05686187744141</c:v>
@@ -6139,13 +6139,13 @@
                   <c:v>93.50628662109375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.738178849220276</c:v>
+                  <c:v>1.738170027732849</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.10201358795166</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.04500961303711</c:v>
+                  <c:v>33.04500579833984</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>83.64619445800781</c:v>
@@ -6154,19 +6154,19 @@
                   <c:v>82.76779174804688</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.442113399505615</c:v>
+                  <c:v>7.442121982574463</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>94.27606964111328</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3419691920280457</c:v>
+                  <c:v>0.3419544994831085</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20.4694995880127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0002998491981998086</c:v>
+                  <c:v>0.0003027889179065824</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>92.72971343994141</c:v>
@@ -6190,22 +6190,22 @@
                   <c:v>92.93222045898438</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.155845165252686</c:v>
+                  <c:v>1.155839323997498</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90.19467926025391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64.87176513671875</c:v>
+                  <c:v>64.87177276611328</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>54.12764358520508</c:v>
+                  <c:v>54.12765502929688</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1.155807018280029</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.42377662658691</c:v>
+                  <c:v>29.42378234863281</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>54.6723518371582</c:v>
@@ -6214,7 +6214,7 @@
                   <c:v>6.034871101379395</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.001778517384082079</c:v>
+                  <c:v>0.001775577664375305</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.160689830780029</c:v>
@@ -6226,13 +6226,13 @@
                   <c:v>94.28205871582031</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31.05465888977051</c:v>
+                  <c:v>31.05469512939453</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.123620271682739</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.154772162437439</c:v>
+                  <c:v>1.154778122901917</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>94.05123138427734</c:v>
@@ -6250,19 +6250,19 @@
                   <c:v>-0.07974813133478165</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.329346179962158</c:v>
+                  <c:v>1.329352021217346</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.07496818155050278</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.174912095069885</c:v>
+                  <c:v>1.174917936325073</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>94.22679901123047</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>10.30736923217773</c:v>
+                  <c:v>10.30736064910889</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>94.28962707519531</c:v>
@@ -6271,16 +6271,16 @@
                   <c:v>47.76692581176758</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>67.72658538818359</c:v>
+                  <c:v>67.72659301757812</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>89.90885925292969</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.050639390945435</c:v>
+                  <c:v>3.050645351409912</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35.39913940429688</c:v>
+                  <c:v>35.39913177490234</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>27.02823448181152</c:v>
@@ -6292,22 +6292,22 @@
                   <c:v>1.125686883926392</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>35.61059188842773</c:v>
+                  <c:v>35.61058044433594</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>77.92249298095703</c:v>
+                  <c:v>77.92247772216797</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.6024264693260193</c:v>
+                  <c:v>-0.6024323105812073</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.002145979553461075</c:v>
+                  <c:v>-0.002140100114047527</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>94.25078582763672</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>50.75726318359375</c:v>
+                  <c:v>50.75726699829102</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>94.04076385498047</c:v>
@@ -6316,13 +6316,13 @@
                   <c:v>18.0637149810791</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.07842254638672</c:v>
+                  <c:v>19.07839584350586</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>46.42369079589844</c:v>
+                  <c:v>46.42369842529297</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42.70151519775391</c:v>
+                  <c:v>42.70150375366211</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>90.52956390380859</c:v>
@@ -6331,7 +6331,7 @@
                   <c:v>94.15975189208984</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>94.21218109130859</c:v>
+                  <c:v>94.21217346191406</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>93.37537384033203</c:v>
@@ -6343,31 +6343,31 @@
                   <c:v>91.39128112792969</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>52.22759246826172</c:v>
+                  <c:v>52.22758865356445</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>89.01951599121094</c:v>
+                  <c:v>89.01950073242188</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>92.84817504882812</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>90.62856292724609</c:v>
+                  <c:v>90.62855529785156</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>94.25857543945312</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>60.44528579711914</c:v>
+                  <c:v>60.44528961181641</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.135987520217896</c:v>
+                  <c:v>1.135993361473083</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.4838948845863342</c:v>
+                  <c:v>-0.4839007556438446</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83.25582122802734</c:v>
+                  <c:v>83.25581359863281</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.28401184082031</c:v>
@@ -6388,7 +6388,7 @@
                   <c:v>92.48719787597656</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92.68585205078125</c:v>
+                  <c:v>92.68584442138672</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>1.155853986740112</c:v>
@@ -6400,10 +6400,10 @@
                   <c:v>94.18147277832031</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.58012318611145</c:v>
+                  <c:v>3.580111265182495</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.76351928710938</c:v>
+                  <c:v>19.76353073120117</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>73.37738037109375</c:v>
@@ -6412,7 +6412,7 @@
                   <c:v>94.25236511230469</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.577224493026733</c:v>
+                  <c:v>1.577221512794495</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.26522064208984</c:v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>62.66257095336914</v>
+        <v>62.66256332397461</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.738178849220276</v>
+        <v>1.738170027732849</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>33.04500961303711</v>
+        <v>33.04500579833984</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.442113399505615</v>
+        <v>7.442121982574463</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>0.3419691920280457</v>
+        <v>0.3419544994831085</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0002998491981998086</v>
+        <v>0.0003027889179065824</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.155845165252686</v>
+        <v>1.155839323997498</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>64.87176513671875</v>
+        <v>64.87177276611328</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>54.12764358520508</v>
+        <v>54.12765502929688</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>29.42377662658691</v>
+        <v>29.42378234863281</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.001778517384082079</v>
+        <v>0.001775577664375305</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>31.05465888977051</v>
+        <v>31.05469512939453</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.154772162437439</v>
+        <v>1.154778122901917</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.329346179962158</v>
+        <v>1.329352021217346</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.174912095069885</v>
+        <v>1.174917936325073</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>10.30736923217773</v>
+        <v>10.30736064910889</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>67.72658538818359</v>
+        <v>67.72659301757812</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>3.050639390945435</v>
+        <v>3.050645351409912</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>35.39913940429688</v>
+        <v>35.39913177490234</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>35.61059188842773</v>
+        <v>35.61058044433594</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>56.4807</v>
       </c>
       <c r="F61">
-        <v>77.92249298095703</v>
+        <v>77.92247772216797</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.6024264693260193</v>
+        <v>-0.6024323105812073</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.002145979553461075</v>
+        <v>-0.002140100114047527</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>50.75726318359375</v>
+        <v>50.75726699829102</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>19.07842254638672</v>
+        <v>19.07839584350586</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>46.42369079589844</v>
+        <v>46.42369842529297</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>42.70151519775391</v>
+        <v>42.70150375366211</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>94.21218109130859</v>
+        <v>94.21217346191406</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>52.22759246826172</v>
+        <v>52.22758865356445</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>97.7385</v>
       </c>
       <c r="F78">
-        <v>89.01951599121094</v>
+        <v>89.01950073242188</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>90.62856292724609</v>
+        <v>90.62855529785156</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>60.44528579711914</v>
+        <v>60.44528961181641</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.135987520217896</v>
+        <v>1.135993361473083</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.4838948845863342</v>
+        <v>-0.4839007556438446</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>83.25582122802734</v>
+        <v>83.25581359863281</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>95.6799</v>
       </c>
       <c r="F92">
-        <v>92.68585205078125</v>
+        <v>92.68584442138672</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>77.41670000000001</v>
       </c>
       <c r="F96">
-        <v>3.58012318611145</v>
+        <v>3.580111265182495</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>19.76351928710938</v>
+        <v>19.76353073120117</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.577224493026733</v>
+        <v>1.577221512794495</v>
       </c>
     </row>
     <row r="101" spans="1:6">
